--- a/QTL/output/QTL_results_20220818.xlsx
+++ b/QTL/output/QTL_results_20220818.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/CADVIP/QTL/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E83DD42-3484-4647-B328-DCC072FE2BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81A0E4C-0E67-8C48-9812-838CA2569816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="4500" windowWidth="28040" windowHeight="17440" xr2:uid="{EC1CDEC9-7DB8-E84C-8C56-7F132A4FE9C8}"/>
+    <workbookView xWindow="10700" yWindow="3580" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{EC1CDEC9-7DB8-E84C-8C56-7F132A4FE9C8}"/>
   </bookViews>
   <sheets>
-    <sheet name="leaf_lm()" sheetId="1" r:id="rId1"/>
+    <sheet name="Deltoides_lm" sheetId="1" r:id="rId1"/>
+    <sheet name="Nigra_lm" sheetId="2" r:id="rId2"/>
+    <sheet name="Dosage_lm" sheetId="3" r:id="rId3"/>
+    <sheet name="Nigra_Dosage_lm" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,37 +38,460 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Deltoides</t>
-  </si>
-  <si>
-    <t>Nigra</t>
-  </si>
-  <si>
-    <t>Dosage</t>
-  </si>
-  <si>
-    <t>Chr01_3052414_4229970_I</t>
-  </si>
-  <si>
-    <t>P_value</t>
-  </si>
-  <si>
-    <t>Chr01_4235627_5264100_I</t>
-  </si>
-  <si>
-    <t>Chr01_5264150_5885231_I</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="146">
+  <si>
+    <t>Chr01_4235627_5264100</t>
+  </si>
+  <si>
+    <t>Chr01_5264150_5885231</t>
+  </si>
+  <si>
+    <t>Chr01_5886076_6253003</t>
+  </si>
+  <si>
+    <t>Chr01_6253852_6811196</t>
+  </si>
+  <si>
+    <t>Chr01_6811651_7107385</t>
+  </si>
+  <si>
+    <t>Chr01_8021339_8546533</t>
+  </si>
+  <si>
+    <t>Chr01_10127776_10700451</t>
+  </si>
+  <si>
+    <t>Chr01_11289028_11965532</t>
+  </si>
+  <si>
+    <t>Chr01_11966199_12330339</t>
+  </si>
+  <si>
+    <t>Chr01_12330528_13051606</t>
+  </si>
+  <si>
+    <t>Chr01_13052007_13382483</t>
+  </si>
+  <si>
+    <t>Chr01_13382510_13576339</t>
+  </si>
+  <si>
+    <t>Chr01_13576351_14061355</t>
+  </si>
+  <si>
+    <t>Chr01_14061635_14604721</t>
+  </si>
+  <si>
+    <t>Chr01_14607158_15449572</t>
+  </si>
+  <si>
+    <t>Chr02_4525_349303</t>
+  </si>
+  <si>
+    <t>Chr02_361276_876244</t>
+  </si>
+  <si>
+    <t>Chr02_880559_1380844</t>
+  </si>
+  <si>
+    <t>Chr02_1380871_1588241</t>
+  </si>
+  <si>
+    <t>Chr02_1591078_2117143</t>
+  </si>
+  <si>
+    <t>Chr02_2118663_2439301</t>
+  </si>
+  <si>
+    <t>Chr02_2439319_3802076</t>
+  </si>
+  <si>
+    <t>Chr02_3811172_4203782</t>
+  </si>
+  <si>
+    <t>Chr02_4204964_5059530</t>
+  </si>
+  <si>
+    <t>Chr02_5059567_5396611</t>
+  </si>
+  <si>
+    <t>Chr10_12006024_12591692</t>
+  </si>
+  <si>
+    <t>Chr04_60380_871979</t>
+  </si>
+  <si>
+    <t>Chr14_7561489_7987654</t>
+  </si>
+  <si>
+    <t>Chr14_7987723_8360105</t>
+  </si>
+  <si>
+    <t>Chr14_8360173_8826511</t>
+  </si>
+  <si>
+    <t>Chr09_3897498_4348780</t>
+  </si>
+  <si>
+    <t>Chr09_4349350_4815906</t>
+  </si>
+  <si>
+    <t>Chr09_4815949_4950038</t>
+  </si>
+  <si>
+    <t>Chr09_4951557_5226408</t>
+  </si>
+  <si>
+    <t>Chr09_5226549_5587934</t>
+  </si>
+  <si>
+    <t>Chr09_6348626_6642511</t>
+  </si>
+  <si>
+    <t>Chr09_6642849_7022695</t>
+  </si>
+  <si>
+    <t>Chr09_7644076_7707585</t>
+  </si>
+  <si>
+    <t>Chr09_7716481_8073961</t>
+  </si>
+  <si>
+    <t>Chr09_8094829_8323134</t>
+  </si>
+  <si>
+    <t>Chr09_8323314_8873271</t>
+  </si>
+  <si>
+    <t>Chr09_8931263_9461597</t>
+  </si>
+  <si>
+    <t>Chr09_10169169_10546219</t>
+  </si>
+  <si>
+    <t>Chr09_10546585_10817737</t>
+  </si>
+  <si>
+    <t>Chr09_10817793_11190661</t>
+  </si>
+  <si>
+    <t>Chr09_11198785_11824088</t>
+  </si>
+  <si>
+    <t>Chr09_11824144_12217367</t>
+  </si>
+  <si>
+    <t>Chr09_12217449_12479031</t>
+  </si>
+  <si>
+    <t>Chr09_12479150_12868645</t>
+  </si>
+  <si>
+    <t>Chr05_5438585_5830688</t>
+  </si>
+  <si>
+    <t>Chr17_10878413_11065072</t>
+  </si>
+  <si>
+    <t>Chr17_13349543_13731534</t>
+  </si>
+  <si>
+    <t>Chr17_13865658_14959995</t>
+  </si>
+  <si>
+    <t>Phenotype</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Area_2_cavities_filled_field_y1_y2</t>
+  </si>
+  <si>
+    <t>QTL</t>
+  </si>
+  <si>
+    <t>P-value (adjusted)</t>
+  </si>
+  <si>
+    <t>Linkage class</t>
+  </si>
+  <si>
+    <t>Chrom</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Chr02_4203783_4204963</t>
+  </si>
+  <si>
+    <t>Chr02_5059531_5059566</t>
+  </si>
+  <si>
+    <t>suggestive</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Area_2_cavities_filled_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Horiz_size_50perc_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Horiz_size_50perc_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Horiz_size_75perc_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Horiz_size_75perc_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Horiz_size_center_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Horiz_size_center_field_year2</t>
+  </si>
+  <si>
+    <t>Chr02_1_4524</t>
+  </si>
+  <si>
+    <t>Chr02_349304_361275</t>
+  </si>
+  <si>
+    <t>Chr02_876245_880558</t>
+  </si>
+  <si>
+    <t>Chr02_1380845_1380870</t>
+  </si>
+  <si>
+    <t>Chr02_1588242_1591077</t>
+  </si>
+  <si>
+    <t>Chr02_2117144_2118662</t>
+  </si>
+  <si>
+    <t>Chr02_5396612_5398283</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Num_Indents_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Chr02_2439302_2439318</t>
+  </si>
+  <si>
+    <t>Chr02_3802077_3811171</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Num_Indents_field_year2</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>Chr01_5264101_5264149</t>
+  </si>
+  <si>
+    <t>Chr01_5885232_5886075</t>
+  </si>
+  <si>
+    <t>Chr01_6253004_6253851</t>
+  </si>
+  <si>
+    <t>Chr01_6811197_6811650</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_PC1_PC2_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_PC2_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Perimeter_2_excl_cavities_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Perimeter_2_excl_cavities_field_year2</t>
+  </si>
+  <si>
+    <t>Chr05_5830689_5831721</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Squared_Perimeter2_Area2_ratio_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Squared_Perimeter2_Area2_ratio_field_year2</t>
+  </si>
+  <si>
+    <t>Chr10_12005065_12006023</t>
+  </si>
+  <si>
+    <t>Chr17_13731535_13865657</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_25perc_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_25perc_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_50perc_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_50perc_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_75perc_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_75perc_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_center_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_center_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_center_Horiz_size_center_ratio_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_center_Horiz_size_center_ratio_field_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_PC1_PC3_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_PC1_PC3_year2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_PC1_y1_y2</t>
+  </si>
+  <si>
+    <t>Chr04_1_60379</t>
+  </si>
+  <si>
+    <t>Chr04_871980_872101</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Vert_size_25perc_Vert_size_75perc_ratio_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Chr09_4348781_4349349</t>
+  </si>
+  <si>
+    <t>Chr09_4815907_4815948</t>
+  </si>
+  <si>
+    <t>Chr09_4950039_4951556</t>
+  </si>
+  <si>
+    <t>Chr09_5226409_5226548</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Circularity_field_y1_y2</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Circularity_field_year2</t>
+  </si>
+  <si>
+    <t>Chr01_11189459_11289027</t>
+  </si>
+  <si>
+    <t>Chr01_11965533_11966198</t>
+  </si>
+  <si>
+    <t>Chr01_12330340_12330527</t>
+  </si>
+  <si>
+    <t>Chr01_13051607_13052006</t>
+  </si>
+  <si>
+    <t>Chr01_13382484_13382509</t>
+  </si>
+  <si>
+    <t>Chr01_13576340_13576350</t>
+  </si>
+  <si>
+    <t>Chr01_14061356_14061634</t>
+  </si>
+  <si>
+    <t>Chr01_14604722_14607157</t>
+  </si>
+  <si>
+    <t>Chr01_15449573_15456448</t>
+  </si>
+  <si>
+    <t>Chr09_5587935_5587972</t>
+  </si>
+  <si>
+    <t>Chr09_6642512_6642848</t>
+  </si>
+  <si>
+    <t>Chr09_7707586_7716480</t>
+  </si>
+  <si>
+    <t>Chr09_8073962_8094828</t>
+  </si>
+  <si>
+    <t>Chr09_8323135_8323313</t>
+  </si>
+  <si>
+    <t>Chr09_8873272_8931262</t>
+  </si>
+  <si>
+    <t>Chr09_9461598_10169168</t>
+  </si>
+  <si>
+    <t>Chr09_10546220_10546584</t>
+  </si>
+  <si>
+    <t>Chr09_10817738_10817792</t>
+  </si>
+  <si>
+    <t>Chr09_11190662_11198784</t>
+  </si>
+  <si>
+    <t>Chr09_11824089_11824143</t>
+  </si>
+  <si>
+    <t>Chr09_12217368_12217448</t>
+  </si>
+  <si>
+    <t>Chr09_12479032_12479149</t>
+  </si>
+  <si>
+    <t>Chr09_12868646_12948742</t>
+  </si>
+  <si>
+    <t>Chr14_7560190_7561488</t>
+  </si>
+  <si>
+    <t>Chr14_7987655_7987722</t>
+  </si>
+  <si>
+    <t>Chr14_8360106_8360172</t>
+  </si>
+  <si>
+    <t>Blup_Transfo_Horiz_size_25perc_field_y1_y2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,8 +517,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,56 +834,4534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A418CD7-F057-0541-ABA1-D7B3E6AE62C6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>7.5931097407542794E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3811172</v>
+      </c>
+      <c r="G2">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>7.5931097407542794E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>4203783</v>
+      </c>
+      <c r="G3">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>2.5903137277293001E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4204964</v>
+      </c>
+      <c r="G4">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>8.4950879192632694E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>5059531</v>
+      </c>
+      <c r="G5">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>4.1962341883354501E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3811172</v>
+      </c>
+      <c r="G6">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>4.1962341883354501E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4203783</v>
+      </c>
+      <c r="G7">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1.2952813636750601E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4204964</v>
+      </c>
+      <c r="G8">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>6.9950693173259207E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>5059531</v>
+      </c>
+      <c r="G9">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>5.2210037821701201E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4204964</v>
+      </c>
+      <c r="G10">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>3.68980917504724E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4204964</v>
+      </c>
+      <c r="G11">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>7.19093829172123E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3811172</v>
+      </c>
+      <c r="G12">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13">
+        <v>7.19093829172123E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4203783</v>
+      </c>
+      <c r="G13">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>1.8843456457132601E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4204964</v>
+      </c>
+      <c r="G14">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>7.19093829172123E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>5059531</v>
+      </c>
+      <c r="G15">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>4.3796864445525198E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>3811172</v>
+      </c>
+      <c r="G16">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>4.3796864445525198E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>4203783</v>
+      </c>
+      <c r="G17">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1.02135116944097E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>4204964</v>
+      </c>
+      <c r="G18">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>4.3796864445525198E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>5059531</v>
+      </c>
+      <c r="G19">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>7.6722142180441294E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3811172</v>
+      </c>
+      <c r="G20">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21">
+        <v>7.6722142180441294E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4203783</v>
+      </c>
+      <c r="G21">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>2.4832943234066401E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>4204964</v>
+      </c>
+      <c r="G22">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>7.6722142180441294E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>5059531</v>
+      </c>
+      <c r="G23">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>5.2952766621628199E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>3811172</v>
+      </c>
+      <c r="G24">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25">
+        <v>5.2952766621628199E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>4203783</v>
+      </c>
+      <c r="G25">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>1.30578119992715E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>4204964</v>
+      </c>
+      <c r="G26">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>5.4816117749396799E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>5059531</v>
+      </c>
+      <c r="G27">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>2.5276115923377199E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>2.5276115923377199E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>4525</v>
+      </c>
+      <c r="G29">
+        <v>349303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30">
+        <v>2.5276115923377199E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>349304</v>
+      </c>
+      <c r="G30">
+        <v>361275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>2.33970365189878E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>361276</v>
+      </c>
+      <c r="G31">
+        <v>876244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>6.4410058024713598E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>876245</v>
+      </c>
+      <c r="G32">
+        <v>880558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>7.1310603791109303E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>880559</v>
+      </c>
+      <c r="G33">
+        <v>1380844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>6.4410058024713598E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1380845</v>
+      </c>
+      <c r="G34">
+        <v>1380870</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>2.5276115923377199E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1380871</v>
+      </c>
+      <c r="G35">
+        <v>1588241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36">
+        <v>3.00088868512942E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1588242</v>
+      </c>
+      <c r="G36">
+        <v>1591077</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>3.3096852272189697E-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1591078</v>
+      </c>
+      <c r="G37">
+        <v>2117143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
+        <v>2.5276115923377199E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2117144</v>
+      </c>
+      <c r="G38">
+        <v>2118662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>2.1600004772271201E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2118663</v>
+      </c>
+      <c r="G39">
+        <v>2439301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>7.3545561543313404E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2439319</v>
+      </c>
+      <c r="G40">
+        <v>3802076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>2.1600004772271201E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>3811172</v>
+      </c>
+      <c r="G41">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42">
+        <v>2.1600004772271201E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>4203783</v>
+      </c>
+      <c r="G42">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>1.1015639732552601E-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>4204964</v>
+      </c>
+      <c r="G43">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44">
+        <v>3.2356321759669099E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>5059531</v>
+      </c>
+      <c r="G44">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>6.4410058024713598E-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>5059567</v>
+      </c>
+      <c r="G45">
+        <v>5396611</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46">
+        <v>6.4437862329375997E-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>5396612</v>
+      </c>
+      <c r="G46">
+        <v>5398283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>9.8406662619621495E-3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>9.8406662619621495E-3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>4525</v>
+      </c>
+      <c r="G48">
+        <v>349303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49">
+        <v>1.1693187634941701E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>349304</v>
+      </c>
+      <c r="G49">
+        <v>361275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>9.8406662619621495E-3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>361276</v>
+      </c>
+      <c r="G50">
+        <v>876244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51">
+        <v>3.10589592122133E-2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>876245</v>
+      </c>
+      <c r="G51">
+        <v>880558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>3.10589592122133E-2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>880559</v>
+      </c>
+      <c r="G52">
+        <v>1380844</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53">
+        <v>2.96457692630911E-2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1380845</v>
+      </c>
+      <c r="G53">
+        <v>1380870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>9.8406662619621495E-3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1380871</v>
+      </c>
+      <c r="G54">
+        <v>1588241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55">
+        <v>1.30086653351281E-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>1588242</v>
+      </c>
+      <c r="G55">
+        <v>1591077</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>1.3093695022108401E-2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1591078</v>
+      </c>
+      <c r="G56">
+        <v>2117143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57">
+        <v>9.8406662619621495E-3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2117144</v>
+      </c>
+      <c r="G57">
+        <v>2118662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58">
+        <v>7.0167759127673802E-3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>2118663</v>
+      </c>
+      <c r="G58">
+        <v>2439301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>5.2303359685493399E-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2439302</v>
+      </c>
+      <c r="G59">
+        <v>2439318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>2.96457692630911E-2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2439319</v>
+      </c>
+      <c r="G60">
+        <v>3802076</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61">
+        <v>4.2292649730976198E-2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>3802077</v>
+      </c>
+      <c r="G61">
+        <v>3811171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>7.0167759127673802E-3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>3811172</v>
+      </c>
+      <c r="G62">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>7.0167759127673802E-3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>4203783</v>
+      </c>
+      <c r="G63">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>4.3216112723076499E-3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>4204964</v>
+      </c>
+      <c r="G64">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>2.3016872049115102E-2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>5059531</v>
+      </c>
+      <c r="G65">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66">
+        <v>4.2292649730976198E-2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>5059567</v>
+      </c>
+      <c r="G66">
+        <v>5396611</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>4.2292649730976198E-2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>5396612</v>
+      </c>
+      <c r="G67">
+        <v>5398283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
         <v>0</v>
       </c>
+      <c r="C68">
+        <v>1.01364985889812E-2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>4235627</v>
+      </c>
+      <c r="G68">
+        <v>5264100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69">
+        <v>1.01364985889812E-2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>5264101</v>
+      </c>
+      <c r="G69">
+        <v>5264149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1.01364985889812E-2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>5264150</v>
+      </c>
+      <c r="G70">
+        <v>5885231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>1.67718543171777E-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>5885232</v>
+      </c>
+      <c r="G71">
+        <v>5886075</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>1.18941396072181E-2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>5886076</v>
+      </c>
+      <c r="G72">
+        <v>6253003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+      <c r="C73">
+        <v>1.07615491609989E-2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>6253004</v>
+      </c>
+      <c r="G73">
+        <v>6253851</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>1.01364985889812E-2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>6253852</v>
+      </c>
+      <c r="G74">
+        <v>6811196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75">
+        <v>1.2738784530845501E-2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>6811197</v>
+      </c>
+      <c r="G75">
+        <v>6811650</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>5.5143794716252997E-2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>6811651</v>
+      </c>
+      <c r="G76">
+        <v>7107385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77">
+        <v>3.2578707768414303E-2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>6253004</v>
+      </c>
+      <c r="G77">
+        <v>6253851</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>4.5934835964685297E-2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>6253852</v>
+      </c>
+      <c r="G78">
+        <v>6811196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79">
+        <v>3.2578707768414303E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>6811197</v>
+      </c>
+      <c r="G79">
+        <v>6811650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80">
+        <v>6.7916112693678699E-2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>3811172</v>
+      </c>
+      <c r="G80">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C81">
+        <v>6.7916112693678699E-2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>4203783</v>
+      </c>
+      <c r="G81">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82">
+        <v>4.1158928169088997E-2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>4204964</v>
+      </c>
+      <c r="G82">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83">
+        <v>6.7916112693678699E-2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>5059531</v>
+      </c>
+      <c r="G83">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>3.2613393429360302E-2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>3811172</v>
+      </c>
+      <c r="G84">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85">
+        <v>3.2613393429360302E-2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>4203783</v>
+      </c>
+      <c r="G85">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>1.47612940583216E-2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>64</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>4204964</v>
+      </c>
+      <c r="G86">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87">
+        <v>8.2007091020692702E-2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>63</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>5059531</v>
+      </c>
+      <c r="G87">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88">
+        <v>7.5925153205700702E-2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>5438585</v>
+      </c>
+      <c r="G88">
+        <v>5830688</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>7.5925153205700702E-2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>5830689</v>
+      </c>
+      <c r="G89">
+        <v>5831721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C90">
+        <v>8.6213732120804201E-2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>4203783</v>
+      </c>
+      <c r="G90">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91">
+        <v>8.6213732120804201E-2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91">
+        <v>5438585</v>
+      </c>
+      <c r="G91">
+        <v>5830688</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>8.6213732120804201E-2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>63</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92">
+        <v>5830689</v>
+      </c>
+      <c r="G92">
+        <v>5831721</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93">
+        <v>8.6213732120804201E-2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>63</v>
+      </c>
+      <c r="E93">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>12005065</v>
+      </c>
+      <c r="G93">
+        <v>12006023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94">
+        <v>8.6213732120804201E-2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>12006024</v>
+      </c>
+      <c r="G94">
+        <v>12591692</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95">
+        <v>8.6213732120804201E-2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>63</v>
+      </c>
+      <c r="E95">
+        <v>17</v>
+      </c>
+      <c r="F95">
+        <v>13349543</v>
+      </c>
+      <c r="G95">
+        <v>13731534</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>8.6213732120804201E-2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="E96">
+        <v>17</v>
+      </c>
+      <c r="F96">
+        <v>13731535</v>
+      </c>
+      <c r="G96">
+        <v>13865657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>6.1239102609483002E-2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>4204964</v>
+      </c>
+      <c r="G97">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>3.5784050267601702E-2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>3811172</v>
+      </c>
+      <c r="G98">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99">
+        <v>3.5784050267601702E-2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>64</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>4203783</v>
+      </c>
+      <c r="G99">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <v>1.9736220538859799E-2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>64</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>4204964</v>
+      </c>
+      <c r="G100">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>6.8463123727246694E-2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>63</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>3811172</v>
+      </c>
+      <c r="G101">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102">
+        <v>6.8463123727246694E-2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>63</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>4203783</v>
+      </c>
+      <c r="G102">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103">
+        <v>6.34875004710337E-2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>4204964</v>
+      </c>
+      <c r="G103">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>4.52898220847553E-2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>3811172</v>
+      </c>
+      <c r="G104">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105">
+        <v>4.52898220847553E-2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>4203783</v>
+      </c>
+      <c r="G105">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106">
+        <v>3.1690215056134202E-2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>64</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>4204964</v>
+      </c>
+      <c r="G106">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>6.0504101767234503E-2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>63</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>3811172</v>
+      </c>
+      <c r="G107">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108">
+        <v>6.0504101767234503E-2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>4203783</v>
+      </c>
+      <c r="G108">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>3.01785138903433E-2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>4204964</v>
+      </c>
+      <c r="G109">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110">
+        <v>6.0504101767234503E-2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>5059531</v>
+      </c>
+      <c r="G110">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>3.2409980676502498E-2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>3811172</v>
+      </c>
+      <c r="G111">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112">
+        <v>3.2409980676502498E-2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>4203783</v>
+      </c>
+      <c r="G112">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113">
+        <v>1.2000316881868501E-2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>4204964</v>
+      </c>
+      <c r="G113">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114">
+        <v>8.3622848324691607E-2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>5059531</v>
+      </c>
+      <c r="G114">
+        <v>5059566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>103</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>7.0647874452259493E-2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>3811172</v>
+      </c>
+      <c r="G115">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116">
+        <v>7.0647874452259493E-2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>4203783</v>
+      </c>
+      <c r="G116">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>7.0647874452259493E-2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>4204964</v>
+      </c>
+      <c r="G117">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118">
+        <v>4.1658619591410602E-2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>3811172</v>
+      </c>
+      <c r="G118">
+        <v>4203782</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
+        <v>61</v>
+      </c>
+      <c r="C119">
+        <v>4.1658619591410602E-2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>4203783</v>
+      </c>
+      <c r="G119">
+        <v>4204963</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120">
+        <v>3.8772702794978998E-2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>4204964</v>
+      </c>
+      <c r="G120">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>3.5766398036030503E-2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>4204964</v>
+      </c>
+      <c r="G121">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>3.7540720585121298E-2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>4204964</v>
+      </c>
+      <c r="G122">
+        <v>5059530</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300" s="1"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301" s="1"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302" s="1"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303" s="1"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304" s="1"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B305" s="1"/>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B307" s="1"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B308" s="1"/>
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B309" s="1"/>
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B310" s="1"/>
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B311" s="1"/>
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B312" s="1"/>
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B313" s="1"/>
+      <c r="E313" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3B0BC7-30C8-4642-8F23-4B8F3D654FBB}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>5.4063763749017798E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>13349543</v>
+      </c>
+      <c r="G2">
+        <v>13731534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>9.0439392838634492E-3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>13731535</v>
+      </c>
+      <c r="G3">
+        <v>13865657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>4.7474368416556403E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>13865658</v>
+      </c>
+      <c r="G4">
+        <v>14959995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>5.9833861467470599E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>13349543</v>
+      </c>
+      <c r="G5">
+        <v>13731534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6">
+        <v>5.9833861467470599E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>13731535</v>
+      </c>
+      <c r="G6">
+        <v>13865657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>1.7949615304063301E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>13349543</v>
+      </c>
+      <c r="G7">
+        <v>13731534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8">
+        <v>3.12106088604296E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>13731535</v>
+      </c>
+      <c r="G8">
+        <v>13865657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9">
+        <v>7.8384421976796598E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>13865658</v>
+      </c>
+      <c r="G9">
+        <v>14959995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>9.6184513154733101E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>10878413</v>
+      </c>
+      <c r="G10">
+        <v>11065072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <v>9.6184513154733101E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>13349543</v>
+      </c>
+      <c r="G11">
+        <v>13731534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>9.6184513154733101E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>13731535</v>
+      </c>
+      <c r="G12">
+        <v>13865657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13">
+        <v>5.7873715394854398E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
+      <c r="G13">
+        <v>60379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>5.7873715394854398E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>60380</v>
+      </c>
+      <c r="G14">
+        <v>871979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15">
+        <v>6.7825680789000906E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>871980</v>
+      </c>
+      <c r="G15">
+        <v>872101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4C658B7-DE75-604A-B1BD-8401BE625C8A}">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2.8879999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>3897498</v>
+      </c>
+      <c r="G2">
+        <v>4348780</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>4348781</v>
+      </c>
+      <c r="G3">
+        <v>4349349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>4349350</v>
+      </c>
+      <c r="G4">
+        <v>4815906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5">
+        <v>4815907</v>
+      </c>
+      <c r="G5">
+        <v>4815948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>4815949</v>
+      </c>
+      <c r="G6">
+        <v>4950038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>4950039</v>
+      </c>
+      <c r="G7">
+        <v>4951556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>4951557</v>
+      </c>
+      <c r="G8">
+        <v>5226408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <v>4.8189283946684397E-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>5226409</v>
+      </c>
+      <c r="G9">
+        <v>5226548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <v>3897498</v>
+      </c>
+      <c r="G10">
+        <v>4348780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>4348781</v>
+      </c>
+      <c r="G11">
+        <v>4349349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>4349350</v>
+      </c>
+      <c r="G12">
+        <v>4815906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13">
+        <v>4815907</v>
+      </c>
+      <c r="G13">
+        <v>4815948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>4815949</v>
+      </c>
+      <c r="G14">
+        <v>4950038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>4950039</v>
+      </c>
+      <c r="G15">
+        <v>4951556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>4951557</v>
+      </c>
+      <c r="G16">
+        <v>5226408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17">
+        <v>7.3769711050426207E-2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>5226409</v>
+      </c>
+      <c r="G17">
+        <v>5226548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>2.0920000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="C18">
+        <v>5.1584418284483298E-2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>3.5099999999999999E-2</v>
+      <c r="C19">
+        <v>8.0908211246766407E-2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>4.2568342311202698E-2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>4.2568342311202698E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>5.14410180190659E-2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24">
+        <v>5.1584418284483298E-2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>5.5664874229217801E-2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26">
+        <v>7.1994563292837599E-2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>6.8408771221562206E-2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28">
+        <v>6.7253539267159004E-2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>7.2613100897339494E-2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30">
+        <v>7.2613100897339494E-2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>7.2613100897339494E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <v>7.2957768409986301E-2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>7.2613100897339494E-2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36">
+        <v>5.9789937762164999E-2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38">
+        <v>5.9789937762164999E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>5.9789937762164999E-2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>6.1895172503817597E-2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44">
+        <v>5.9789937762164999E-2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>5.9789937762164999E-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46">
+        <v>4.4675199869012597E-2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>5.9789937762164999E-2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51">
+        <v>5.9789937762164999E-2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>6.0648740263101297E-2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55">
+        <v>7.2613100897339494E-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56">
+        <v>7.7191492631252301E-2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57">
+        <v>7.2613100897339494E-2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58">
+        <v>7.2957768409986301E-2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59">
+        <v>7.2957768409986301E-2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60">
+        <v>7.2957768409986301E-2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61">
+        <v>2.3072406693120599E-2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63">
+        <v>2.2287490835089199E-2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" t="s">
+        <v>45</v>
+      </c>
+      <c r="C66">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>141</v>
+      </c>
+      <c r="C73">
+        <v>2.19211757650596E-2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74">
+        <v>7.9955654067449797E-2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>9.3318087632064894E-2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76">
+        <v>8.1786270370334702E-2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77">
+        <v>8.3369408648631405E-2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78">
+        <v>7.8400745259607094E-2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <v>7.2957768409986301E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B0674A-3695-604F-991A-996EB5582507}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>